--- a/Formulas and Functions/3_Logical_Functions.xlsx
+++ b/Formulas and Functions/3_Logical_Functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Desktop\Excel\Excel_Data_Analytics_Project\Formulas and Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D2627D-18CC-41F8-BE76-723B96EF0770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B36E988-D991-4ECB-837A-3A7107C69E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_1" sheetId="7" r:id="rId1"/>
@@ -1301,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D423364-12D3-4C3A-8A6B-C3645EBFE927}">
   <dimension ref="B1:Q16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2760,7 +2760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18E6D21-2229-4383-8B9A-431F68FAE08C}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
